--- a/决赛/复赛全赛区排名.xlsx
+++ b/决赛/复赛全赛区排名.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\zy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\zy\Desktop\github\codeCraft2021-zy\决赛\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB5C5EC-846E-440F-A166-DE3CA8BCD728}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA77051-67C0-4AF0-BE11-A0E02A4252A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13005" yWindow="-6630" windowWidth="7200" windowHeight="2835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1420,7 +1420,7 @@
   <dimension ref="B1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
